--- a/biology/Microbiologie/Strobilidiidae/Strobilidiidae.xlsx
+++ b/biology/Microbiologie/Strobilidiidae/Strobilidiidae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Strobilidiidae sont une famille de Ciliés de la classe des Oligotrichea et de l’ordre des Choreotrichida.
 </t>
@@ -511,10 +523,12 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le nom de la famille vient du genre type Strobilidium, dérivé du grec στροβιλ / strobil, « toupie ; pomme de pin », en référence à la forme spiralée de la frange de cil de cet organisme.
-De fait, la « spirale caractéristique des kinés somatiques au pôle postérieur » est utilisé comme caractère générique des Strobilidium. Les strobilididés dépourvus d'une telle spirale caudale étant transféré dans le genre Rimostrombidium[note 1],[1].
+De fait, la « spirale caractéristique des kinés somatiques au pôle postérieur » est utilisé comme caractère générique des Strobilidium. Les strobilididés dépourvus d'une telle spirale caudale étant transféré dans le genre Rimostrombidium[note 1],.
 			Strobilidium typicump, tube oral vu à travers la couronne péristomiale de membranellae apparemment coalescente.
 			Strombidium claparedei Kent, 1882alias Strobilidium gyrans Fromentel, 1874a, macronoyaub, vacuole contractile.
 </t>
@@ -545,11 +559,13 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">
 En 1909, Jean Roux fait la description suivante du genre Strobilidium : 
-« Corps pyriforme, un peu rétréci et tronqué en avant ; en arrière, fortement rétréci et terminé en une courte queue tronquée. Partie antérieure occupée par le champ péristomien, convexe à droite. Zone adorale puissante, membranelles[note 2] nombreuses, longues et fortes, recourbées et pointues. Cette zone décrit une spirale complète, très aplatie. Pas de pharynx. À l'extrémité postérieure, déprimée, se trouve la bouche, près de laquelle les membranelles diminuent de longueur. Extrémité postérieure amincie, munie de courtes stries longitudinales souvent enflées à l'extrémité en forme de boutons. Cette extrémité sert à l'adhésion de l'animal et semble fonctionner comme une petite ventouse ou pince multidactyle[2]. »
+« Corps pyriforme, un peu rétréci et tronqué en avant ; en arrière, fortement rétréci et terminé en une courte queue tronquée. Partie antérieure occupée par le champ péristomien, convexe à droite. Zone adorale puissante, membranelles[note 2] nombreuses, longues et fortes, recourbées et pointues. Cette zone décrit une spirale complète, très aplatie. Pas de pharynx. À l'extrémité postérieure, déprimée, se trouve la bouche, près de laquelle les membranelles diminuent de longueur. Extrémité postérieure amincie, munie de courtes stries longitudinales souvent enflées à l'extrémité en forme de boutons. Cette extrémité sert à l'adhésion de l'animal et semble fonctionner comme une petite ventouse ou pince multidactyle. »
 </t>
         </is>
       </c>
@@ -579,6 +595,8 @@
         </is>
       </c>
       <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -604,17 +622,19 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Selon GBIF       (4 octobre 2022)[3] :
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Selon GBIF       (4 octobre 2022) :
 Patronella Corliss, 1979
 Pelagostrobilidium Petz, Song &amp; Wilbert, 1995
 Rimostrombidium Jankowski, 1978
-Strobilidium Schewiakoff, 1892[1]
+Strobilidium Schewiakoff, 1892
 Espèce type Strombidium caudatum Lynn &amp; Montagnes, 1988
-Synonymes[1]
+Synonymes
 Stombilidium
-Strombidium Bütschli[4] : il y a un doute sur l'attribution de ce genre à cet auteur
+Strombidium Bütschli : il y a un doute sur l'attribution de ce genre à cet auteur
 Strombidium Claparède &amp; Lachmann, 1859
 Strombilidium Schewiakoff, 1892 - Neave, 1940 : orthographe incorrecte ultérieure
 Turbilina Enriques, 1908</t>
@@ -645,10 +665,12 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En 1859, Claparede &amp; Lachmann, lorsqu'ils ont créé le genre qui allait devenir le genre type de cette famille, utilisèrent successivement deux orthographes : Strombidion et Strombidium ; l'orthographe Strombidium a été retenue mais est devenue nomen oblitum (nom oublié) au profit de Strobilidium[1].
-Le nom valide de la famille est Strobilidiidae Kahl in Doflein &amp; Reichenow, 1929[1]. En effet, selon l'IRMNG  (5 octobre 2022)[5] le nom Strobilididae Jankowski, 1980 est invalide.
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 1859, Claparede &amp; Lachmann, lorsqu'ils ont créé le genre qui allait devenir le genre type de cette famille, utilisèrent successivement deux orthographes : Strombidion et Strombidium ; l'orthographe Strombidium a été retenue mais est devenue nomen oblitum (nom oublié) au profit de Strobilidium.
+Le nom valide de la famille est Strobilidiidae Kahl in Doflein &amp; Reichenow, 1929. En effet, selon l'IRMNG  (5 octobre 2022) le nom Strobilididae Jankowski, 1980 est invalide.
 </t>
         </is>
       </c>
